--- a/xform-automation-webdriver/controllers/out/production/resources/ParameterFile.xlsx
+++ b/xform-automation-webdriver/controllers/out/production/resources/ParameterFile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>1</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>P@ssw0rd1!</t>
+  </si>
+  <si>
+    <t>marco.lobo@janeirodigital.com</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -531,19 +537,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{426BF298-3202-426D-BE0D-F144A4E9CDB5}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{EFC4F137-F318-41B3-8A8F-BB3A079FF4D1}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{F4B219D8-65D3-4FBC-8335-A2F14B899918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -551,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC247988-D3D6-4F67-B060-1E538F8A4EB7}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
